--- a/Data/EC/NIT-9014595405.xlsx
+++ b/Data/EC/NIT-9014595405.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77EE179F-CE8B-45C2-A3E2-152855B60B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACA6270E-02DA-4D1C-8CE5-BAF0EC639D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AA86AE6D-9241-4D7A-9D1E-1393ACAA50DB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2CC210A9-A1A4-4281-A2CE-957C663CC327}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="91">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -62,25 +62,208 @@
     <t>T &amp; M ASOCIADOS S.A.S.</t>
   </si>
   <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>317748</t>
+  </si>
+  <si>
+    <t>MANUEL ALAIN SOLANA ESTEBA</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
     <t>CC</t>
   </si>
   <si>
+    <t>1128057962</t>
+  </si>
+  <si>
+    <t>JHON JAIRO CANO ROMERO</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>45542404</t>
+  </si>
+  <si>
+    <t>YERLY DEL ROSARIO IBARRA CASTRO</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
     <t>1069732483</t>
   </si>
   <si>
     <t>SARAY HERRERA MONTES</t>
   </si>
   <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>317748</t>
-  </si>
-  <si>
-    <t>MANUEL ALAIN SOLANA ESTEBA</t>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>940479521071998</t>
+  </si>
+  <si>
+    <t>WUARREN MANUEL LOPEZ GUTIERREZ</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>1140865034</t>
+  </si>
+  <si>
+    <t>OSCAR NICOLAS NUÑEZ VELANDIA</t>
+  </si>
+  <si>
+    <t>73508363</t>
+  </si>
+  <si>
+    <t>JHONNY ALBERTO URANGO COGOLLO</t>
+  </si>
+  <si>
+    <t>20906091</t>
+  </si>
+  <si>
+    <t>ANDREA MILAGRO DELAGADO ORTIZ</t>
+  </si>
+  <si>
+    <t>2105</t>
   </si>
   <si>
     <t>1007210894</t>
@@ -89,178 +272,10 @@
     <t>BRENDA MARGARITA VELASQUEZ HERRERA</t>
   </si>
   <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>20906091</t>
-  </si>
-  <si>
-    <t>ANDREA MILAGRO DELAGADO ORTIZ</t>
-  </si>
-  <si>
-    <t>45542404</t>
-  </si>
-  <si>
-    <t>YERLY DEL ROSARIO IBARRA CASTRO</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>940479521071998</t>
-  </si>
-  <si>
-    <t>WUARREN MANUEL LOPEZ GUTIERREZ</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>1128057962</t>
-  </si>
-  <si>
-    <t>JHON JAIRO CANO ROMERO</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
     <t>931523507121978</t>
   </si>
   <si>
     <t>NESTOR LEMUR MARTINEZ BLANCO</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -674,7 +689,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4BF8BA0-8DAE-021B-905F-98EA2EC701BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21016982-7B4F-3532-F2C7-803618F2A4A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1025,8 +1040,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F35FBA-6FEE-4C6D-87F3-A337DE6EB33C}">
-  <dimension ref="B2:J93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55274DF6-EE16-4D29-8452-492095A2F317}">
+  <dimension ref="B2:J103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1050,7 +1065,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1095,7 +1110,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1127,12 +1142,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2843524</v>
+        <v>3416824</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1143,17 +1158,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C13" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F13" s="5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1180,13 +1195,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1203,10 +1218,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G16" s="18">
-        <v>908526</v>
+        <v>1944000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1223,13 +1238,13 @@
         <v>14</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F17" s="18">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="G17" s="18">
-        <v>1944000</v>
+        <v>1399680</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1237,22 +1252,22 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F18" s="18">
-        <v>36360</v>
+        <v>56000</v>
       </c>
       <c r="G18" s="18">
-        <v>909000</v>
+        <v>1400000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1263,13 +1278,13 @@
         <v>12</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F19" s="18">
         <v>36341</v>
@@ -1283,16 +1298,16 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
         <v>36341</v>
@@ -1306,22 +1321,22 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F21" s="18">
-        <v>56000</v>
+        <v>36360</v>
       </c>
       <c r="G21" s="18">
-        <v>1400000</v>
+        <v>909000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1329,22 +1344,22 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F22" s="18">
-        <v>36341</v>
+        <v>36360</v>
       </c>
       <c r="G22" s="18">
-        <v>908526</v>
+        <v>909000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1352,13 +1367,13 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>26</v>
@@ -1375,13 +1390,13 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>27</v>
@@ -1398,13 +1413,13 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>28</v>
@@ -1421,13 +1436,13 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>29</v>
@@ -1444,13 +1459,13 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>30</v>
@@ -1467,13 +1482,13 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>31</v>
@@ -1490,22 +1505,22 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="F29" s="18">
-        <v>40000</v>
+        <v>36360</v>
       </c>
       <c r="G29" s="18">
-        <v>1399680</v>
+        <v>909000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1513,16 +1528,16 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F30" s="18">
         <v>36360</v>
@@ -1536,16 +1551,16 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F31" s="18">
         <v>36360</v>
@@ -1559,16 +1574,16 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F32" s="18">
         <v>36360</v>
@@ -1582,16 +1597,16 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F33" s="18">
         <v>36360</v>
@@ -1605,16 +1620,16 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F34" s="18">
         <v>36360</v>
@@ -1628,16 +1643,16 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F35" s="18">
         <v>36360</v>
@@ -1651,16 +1666,16 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F36" s="18">
         <v>36360</v>
@@ -1674,16 +1689,16 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F37" s="18">
         <v>36360</v>
@@ -1697,16 +1712,16 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F38" s="18">
         <v>36360</v>
@@ -1720,16 +1735,16 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F39" s="18">
         <v>36360</v>
@@ -1743,16 +1758,16 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" s="18">
         <v>36360</v>
@@ -1766,16 +1781,16 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" s="18">
         <v>36360</v>
@@ -1789,16 +1804,16 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F42" s="18">
         <v>36360</v>
@@ -1812,16 +1827,16 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F43" s="18">
         <v>36360</v>
@@ -1835,16 +1850,16 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F44" s="18">
         <v>36360</v>
@@ -1858,16 +1873,16 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F45" s="18">
         <v>36360</v>
@@ -1881,16 +1896,16 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F46" s="18">
         <v>36360</v>
@@ -1904,22 +1919,22 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>50</v>
       </c>
       <c r="F47" s="18">
-        <v>46400</v>
+        <v>36360</v>
       </c>
       <c r="G47" s="18">
-        <v>1160000</v>
+        <v>909000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1927,22 +1942,22 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C48" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>53</v>
-      </c>
       <c r="F48" s="18">
-        <v>46400</v>
+        <v>36360</v>
       </c>
       <c r="G48" s="18">
-        <v>1160000</v>
+        <v>909000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1950,16 +1965,16 @@
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F49" s="18">
         <v>36360</v>
@@ -1973,22 +1988,22 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F50" s="18">
-        <v>46400</v>
+        <v>36360</v>
       </c>
       <c r="G50" s="18">
-        <v>1160000</v>
+        <v>909000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1996,13 +2011,13 @@
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>54</v>
@@ -2019,13 +2034,13 @@
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>55</v>
@@ -2042,22 +2057,22 @@
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F53" s="18">
-        <v>46400</v>
+        <v>36360</v>
       </c>
       <c r="G53" s="18">
-        <v>1160000</v>
+        <v>909000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2065,16 +2080,16 @@
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F54" s="18">
         <v>36360</v>
@@ -2088,22 +2103,22 @@
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F55" s="18">
-        <v>46400</v>
+        <v>36360</v>
       </c>
       <c r="G55" s="18">
-        <v>1160000</v>
+        <v>909000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2111,22 +2126,22 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F56" s="18">
-        <v>46400</v>
+        <v>36360</v>
       </c>
       <c r="G56" s="18">
-        <v>1160000</v>
+        <v>909000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2134,16 +2149,16 @@
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F57" s="18">
         <v>36360</v>
@@ -2157,22 +2172,22 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F58" s="18">
-        <v>46400</v>
+        <v>36360</v>
       </c>
       <c r="G58" s="18">
-        <v>1160000</v>
+        <v>909000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2180,16 +2195,16 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F59" s="18">
         <v>36360</v>
@@ -2203,16 +2218,16 @@
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="F60" s="18">
         <v>36360</v>
@@ -2226,22 +2241,22 @@
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F61" s="18">
-        <v>46400</v>
+        <v>36360</v>
       </c>
       <c r="G61" s="18">
-        <v>1160000</v>
+        <v>909000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2249,22 +2264,22 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F62" s="18">
-        <v>46400</v>
+        <v>36360</v>
       </c>
       <c r="G62" s="18">
-        <v>1160000</v>
+        <v>909000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2272,16 +2287,16 @@
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F63" s="18">
         <v>36360</v>
@@ -2295,22 +2310,22 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F64" s="18">
-        <v>46400</v>
+        <v>36360</v>
       </c>
       <c r="G64" s="18">
-        <v>1160000</v>
+        <v>909000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2318,16 +2333,16 @@
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F65" s="18">
         <v>36360</v>
@@ -2341,22 +2356,22 @@
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F66" s="18">
-        <v>46400</v>
+        <v>36360</v>
       </c>
       <c r="G66" s="18">
-        <v>1160000</v>
+        <v>909000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2364,22 +2379,22 @@
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F67" s="18">
-        <v>36360</v>
+        <v>60000</v>
       </c>
       <c r="G67" s="18">
-        <v>909000</v>
+        <v>1500000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2387,22 +2402,22 @@
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F68" s="18">
-        <v>36360</v>
+        <v>60000</v>
       </c>
       <c r="G68" s="18">
-        <v>909000</v>
+        <v>1500000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2410,22 +2425,22 @@
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F69" s="18">
-        <v>46400</v>
+        <v>60000</v>
       </c>
       <c r="G69" s="18">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2433,22 +2448,22 @@
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F70" s="18">
-        <v>36360</v>
+        <v>60000</v>
       </c>
       <c r="G70" s="18">
-        <v>909000</v>
+        <v>1500000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2456,22 +2471,22 @@
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F71" s="18">
-        <v>46400</v>
+        <v>60000</v>
       </c>
       <c r="G71" s="18">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2479,22 +2494,22 @@
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C72" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E72" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D72" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>65</v>
-      </c>
       <c r="F72" s="18">
-        <v>46400</v>
+        <v>60000</v>
       </c>
       <c r="G72" s="18">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2502,22 +2517,22 @@
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F73" s="18">
-        <v>36360</v>
+        <v>60000</v>
       </c>
       <c r="G73" s="18">
-        <v>909000</v>
+        <v>1500000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2525,22 +2540,22 @@
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F74" s="18">
-        <v>36360</v>
+        <v>60000</v>
       </c>
       <c r="G74" s="18">
-        <v>909000</v>
+        <v>1500000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2548,22 +2563,22 @@
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="F75" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G75" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2571,22 +2586,22 @@
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F76" s="18">
-        <v>36360</v>
+        <v>36341</v>
       </c>
       <c r="G76" s="18">
-        <v>909000</v>
+        <v>908526</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2594,22 +2609,22 @@
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="F77" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G77" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2617,16 +2632,16 @@
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="F78" s="18">
         <v>36360</v>
@@ -2640,16 +2655,16 @@
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F79" s="18">
         <v>46400</v>
@@ -2663,16 +2678,16 @@
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="F80" s="18">
         <v>46400</v>
@@ -2686,22 +2701,22 @@
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="F81" s="18">
-        <v>36360</v>
+        <v>46400</v>
       </c>
       <c r="G81" s="18">
-        <v>909000</v>
+        <v>1160000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2709,16 +2724,16 @@
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="F82" s="18">
         <v>46400</v>
@@ -2732,22 +2747,22 @@
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="F83" s="18">
-        <v>36360</v>
+        <v>46400</v>
       </c>
       <c r="G83" s="18">
-        <v>909000</v>
+        <v>1160000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2755,22 +2770,22 @@
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="F84" s="18">
-        <v>36360</v>
+        <v>46400</v>
       </c>
       <c r="G84" s="18">
-        <v>909000</v>
+        <v>1160000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2778,22 +2793,22 @@
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="F85" s="18">
-        <v>36360</v>
+        <v>46400</v>
       </c>
       <c r="G85" s="18">
-        <v>909000</v>
+        <v>1160000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2801,78 +2816,308 @@
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="F86" s="18">
-        <v>36360</v>
+        <v>46400</v>
       </c>
       <c r="G86" s="18">
-        <v>909000</v>
+        <v>1160000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B87" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D87" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E87" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F87" s="24">
-        <v>36360</v>
-      </c>
-      <c r="G87" s="24">
-        <v>909000</v>
-      </c>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="26"/>
+      <c r="B87" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F87" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G87" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="20"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B88" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F88" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G88" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="20"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B89" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F89" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G89" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="20"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B90" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F90" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G90" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="20"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B91" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F91" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G91" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="20"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B92" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C92" s="32"/>
-      <c r="H92" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
+      <c r="B92" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F92" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G92" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="20"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B93" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C93" s="32"/>
-      <c r="H93" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
+      <c r="B93" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G93" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="20"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B94" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G94" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="20"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B95" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F95" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G95" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="20"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B96" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F96" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G96" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="20"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B97" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D97" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E97" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F97" s="24">
+        <v>46400</v>
+      </c>
+      <c r="G97" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="26"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B102" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C102" s="32"/>
+      <c r="H102" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B103" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C103" s="32"/>
+      <c r="H103" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="H102:J102"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9014595405.xlsx
+++ b/Data/EC/NIT-9014595405.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACA6270E-02DA-4D1C-8CE5-BAF0EC639D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{580E61EC-5EA4-46A6-B51D-6F9D59363BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2CC210A9-A1A4-4281-A2CE-957C663CC327}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6CD82EAE-0476-46FC-9CF0-FC6198D1F7C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="89">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -77,6 +77,63 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1069732483</t>
+  </si>
+  <si>
+    <t>SARAY HERRERA MONTES</t>
+  </si>
+  <si>
+    <t>45542404</t>
+  </si>
+  <si>
+    <t>YERLY DEL ROSARIO IBARRA CASTRO</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>20906091</t>
+  </si>
+  <si>
+    <t>ANDREA MILAGRO DELAGADO ORTIZ</t>
+  </si>
+  <si>
+    <t>1007210894</t>
+  </si>
+  <si>
+    <t>BRENDA MARGARITA VELASQUEZ HERRERA</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>940479521071998</t>
+  </si>
+  <si>
+    <t>WUARREN MANUEL LOPEZ GUTIERREZ</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
     <t>1128057962</t>
   </si>
   <si>
@@ -86,196 +143,133 @@
     <t>2204</t>
   </si>
   <si>
-    <t>45542404</t>
-  </si>
-  <si>
-    <t>YERLY DEL ROSARIO IBARRA CASTRO</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>1069732483</t>
-  </si>
-  <si>
-    <t>SARAY HERRERA MONTES</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>940479521071998</t>
-  </si>
-  <si>
-    <t>WUARREN MANUEL LOPEZ GUTIERREZ</t>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>648547</t>
+  </si>
+  <si>
+    <t>NESTOR LEMUR MARTINEZ BLANCO</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>1140865034</t>
-  </si>
-  <si>
-    <t>OSCAR NICOLAS NUÑEZ VELANDIA</t>
-  </si>
-  <si>
-    <t>73508363</t>
-  </si>
-  <si>
-    <t>JHONNY ALBERTO URANGO COGOLLO</t>
-  </si>
-  <si>
-    <t>20906091</t>
-  </si>
-  <si>
-    <t>ANDREA MILAGRO DELAGADO ORTIZ</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>1007210894</t>
-  </si>
-  <si>
-    <t>BRENDA MARGARITA VELASQUEZ HERRERA</t>
-  </si>
-  <si>
-    <t>931523507121978</t>
-  </si>
-  <si>
-    <t>NESTOR LEMUR MARTINEZ BLANCO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -374,7 +368,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -387,9 +383,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -589,23 +583,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -633,10 +627,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -689,7 +683,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21016982-7B4F-3532-F2C7-803618F2A4A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E447339C-EA9C-5AF3-6DCD-0126D93BBBAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1040,8 +1034,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55274DF6-EE16-4D29-8452-492095A2F317}">
-  <dimension ref="B2:J103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87E7E64-0905-4CCF-9C25-8474040029AF}">
+  <dimension ref="B2:J78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1065,7 +1059,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1110,7 +1104,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1142,12 +1136,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3416824</v>
+        <v>2127444</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1158,17 +1152,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C13" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F13" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1195,13 +1189,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1221,7 +1215,7 @@
         <v>48000</v>
       </c>
       <c r="G16" s="18">
-        <v>1944000</v>
+        <v>2041200</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1238,13 +1232,13 @@
         <v>14</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G17" s="18">
-        <v>1399680</v>
+        <v>908526</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1255,13 +1249,13 @@
         <v>12</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F18" s="18">
         <v>56000</v>
@@ -1278,13 +1272,13 @@
         <v>12</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" s="18">
         <v>36341</v>
@@ -1298,16 +1292,16 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>20</v>
-      </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>36341</v>
@@ -1321,16 +1315,16 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>23</v>
-      </c>
       <c r="E21" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
         <v>36360</v>
@@ -1344,22 +1338,22 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F22" s="18">
-        <v>36360</v>
+        <v>36341</v>
       </c>
       <c r="G22" s="18">
-        <v>909000</v>
+        <v>908526</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1367,13 +1361,13 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>26</v>
@@ -1390,13 +1384,13 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>27</v>
@@ -1413,13 +1407,13 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>28</v>
@@ -1436,13 +1430,13 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>29</v>
@@ -1459,13 +1453,13 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>30</v>
@@ -1482,13 +1476,13 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>31</v>
@@ -1505,22 +1499,22 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F29" s="18">
-        <v>36360</v>
+        <v>40000</v>
       </c>
       <c r="G29" s="18">
-        <v>909000</v>
+        <v>1399680</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1528,16 +1522,16 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F30" s="18">
         <v>36360</v>
@@ -1551,16 +1545,16 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F31" s="18">
         <v>36360</v>
@@ -1574,16 +1568,16 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F32" s="18">
         <v>36360</v>
@@ -1597,16 +1591,16 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F33" s="18">
         <v>36360</v>
@@ -1620,16 +1614,16 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F34" s="18">
         <v>36360</v>
@@ -1643,16 +1637,16 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F35" s="18">
         <v>36360</v>
@@ -1666,16 +1660,16 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F36" s="18">
         <v>36360</v>
@@ -1689,16 +1683,16 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F37" s="18">
         <v>36360</v>
@@ -1712,16 +1706,16 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F38" s="18">
         <v>36360</v>
@@ -1735,16 +1729,16 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F39" s="18">
         <v>36360</v>
@@ -1758,16 +1752,16 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" s="18">
         <v>36360</v>
@@ -1781,16 +1775,16 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" s="18">
         <v>36360</v>
@@ -1804,16 +1798,16 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F42" s="18">
         <v>36360</v>
@@ -1827,16 +1821,16 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F43" s="18">
         <v>36360</v>
@@ -1850,16 +1844,16 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F44" s="18">
         <v>36360</v>
@@ -1873,16 +1867,16 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F45" s="18">
         <v>36360</v>
@@ -1896,16 +1890,16 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F46" s="18">
         <v>36360</v>
@@ -1919,22 +1913,22 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>50</v>
       </c>
       <c r="F47" s="18">
-        <v>36360</v>
+        <v>46400</v>
       </c>
       <c r="G47" s="18">
-        <v>909000</v>
+        <v>1300000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1942,16 +1936,16 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F48" s="18">
         <v>36360</v>
@@ -1965,22 +1959,22 @@
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F49" s="18">
-        <v>36360</v>
+        <v>46400</v>
       </c>
       <c r="G49" s="18">
-        <v>909000</v>
+        <v>1300000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1988,16 +1982,16 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F50" s="18">
         <v>36360</v>
@@ -2011,16 +2005,16 @@
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F51" s="18">
         <v>36360</v>
@@ -2034,16 +2028,16 @@
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F52" s="18">
         <v>36360</v>
@@ -2057,16 +2051,16 @@
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F53" s="18">
         <v>36360</v>
@@ -2080,16 +2074,16 @@
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F54" s="18">
         <v>36360</v>
@@ -2103,16 +2097,16 @@
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F55" s="18">
         <v>36360</v>
@@ -2126,16 +2120,16 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F56" s="18">
         <v>36360</v>
@@ -2149,16 +2143,16 @@
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F57" s="18">
         <v>36360</v>
@@ -2172,16 +2166,16 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F58" s="18">
         <v>36360</v>
@@ -2195,16 +2189,16 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F59" s="18">
         <v>36360</v>
@@ -2218,16 +2212,16 @@
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="F60" s="18">
         <v>36360</v>
@@ -2241,16 +2235,16 @@
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F61" s="18">
         <v>36360</v>
@@ -2264,16 +2258,16 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F62" s="18">
         <v>36360</v>
@@ -2287,16 +2281,16 @@
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F63" s="18">
         <v>36360</v>
@@ -2310,16 +2304,16 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F64" s="18">
         <v>36360</v>
@@ -2333,16 +2327,16 @@
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F65" s="18">
         <v>36360</v>
@@ -2356,16 +2350,16 @@
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F66" s="18">
         <v>36360</v>
@@ -2379,22 +2373,22 @@
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="F67" s="18">
-        <v>60000</v>
+        <v>36360</v>
       </c>
       <c r="G67" s="18">
-        <v>1500000</v>
+        <v>909000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2402,22 +2396,22 @@
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F68" s="18">
-        <v>60000</v>
+        <v>36360</v>
       </c>
       <c r="G68" s="18">
-        <v>1500000</v>
+        <v>909000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2425,22 +2419,22 @@
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="F69" s="18">
-        <v>60000</v>
+        <v>36360</v>
       </c>
       <c r="G69" s="18">
-        <v>1500000</v>
+        <v>909000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2448,22 +2442,22 @@
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="F70" s="18">
-        <v>60000</v>
+        <v>36360</v>
       </c>
       <c r="G70" s="18">
-        <v>1500000</v>
+        <v>909000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2471,653 +2465,78 @@
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="F71" s="18">
-        <v>60000</v>
+        <v>36360</v>
       </c>
       <c r="G71" s="18">
-        <v>1500000</v>
+        <v>909000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F72" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G72" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B73" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F73" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G73" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B74" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F74" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G74" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B75" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F75" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G75" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B76" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F76" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G76" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
+      <c r="B72" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F72" s="24">
+        <v>36360</v>
+      </c>
+      <c r="G72" s="24">
+        <v>909000</v>
+      </c>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="26"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B77" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F77" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G77" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
+      <c r="B77" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" s="32"/>
+      <c r="H77" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F78" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G78" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B79" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F79" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G79" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B80" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F80" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G80" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B81" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C81" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E81" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F81" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G81" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B82" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F82" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G82" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B83" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F83" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G83" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B84" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F84" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G84" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B85" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F85" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G85" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B86" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F86" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G86" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B87" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E87" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F87" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G87" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B88" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F88" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G88" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B89" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F89" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G89" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B90" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E90" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F90" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G90" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B91" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E91" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F91" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G91" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B92" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F92" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G92" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B93" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F93" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G93" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B94" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E94" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F94" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G94" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B95" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E95" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F95" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G95" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B96" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D96" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E96" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F96" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G96" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B97" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C97" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D97" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E97" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F97" s="24">
-        <v>46400</v>
-      </c>
-      <c r="G97" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B102" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C102" s="32"/>
-      <c r="H102" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B103" s="32" t="s">
+      <c r="B78" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" s="32"/>
+      <c r="H78" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C103" s="32"/>
-      <c r="H103" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="H103:J103"/>
-    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="H77:J77"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9014595405.xlsx
+++ b/Data/EC/NIT-9014595405.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{580E61EC-5EA4-46A6-B51D-6F9D59363BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0196CEEF-25CA-407F-BEBE-FBCF35B56995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6CD82EAE-0476-46FC-9CF0-FC6198D1F7C0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{423440EE-D411-4B67-BB50-1402C3DE92F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="90">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -368,9 +371,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -383,7 +384,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -577,29 +580,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -618,19 +621,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -683,7 +692,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E447339C-EA9C-5AF3-6DCD-0126D93BBBAC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A0605CF-851F-A7AE-B354-0C54087BBF83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1034,8 +1043,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87E7E64-0905-4CCF-9C25-8474040029AF}">
-  <dimension ref="B2:J78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFB4494-DEE3-4D35-8D37-158A7B4F04F2}">
+  <dimension ref="B2:J79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1057,57 +1066,57 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1123,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9014595405</v>
       </c>
@@ -1136,12 +1145,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>2127444</v>
+        <v>2163804</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1152,17 +1161,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" s="5">
         <v>8</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F13" s="5">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1189,13 +1198,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>83</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1208,18 +1217,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>48000</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>2041200</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1231,18 +1240,18 @@
       <c r="D17" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>36341</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>908526</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1254,18 +1263,18 @@
       <c r="D18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>56000</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>1400000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1277,18 +1286,18 @@
       <c r="D19" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>36341</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>908526</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1300,18 +1309,18 @@
       <c r="D20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>36341</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>908526</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1323,18 +1332,18 @@
       <c r="D21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G21" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="F21" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G21" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1346,18 +1355,18 @@
       <c r="D22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>36341</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>908526</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1369,18 +1378,18 @@
       <c r="D23" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G23" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="F23" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G23" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1392,18 +1401,18 @@
       <c r="D24" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G24" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G24" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1415,18 +1424,18 @@
       <c r="D25" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G25" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G25" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1438,18 +1447,18 @@
       <c r="D26" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G26" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="F26" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G26" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1461,18 +1470,18 @@
       <c r="D27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G27" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G27" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1484,18 +1493,18 @@
       <c r="D28" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G28" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G28" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1507,18 +1516,18 @@
       <c r="D29" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>40000</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>1399680</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1530,18 +1539,18 @@
       <c r="D30" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G30" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G30" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1553,18 +1562,18 @@
       <c r="D31" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G31" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G31" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1576,18 +1585,18 @@
       <c r="D32" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G32" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G32" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1599,18 +1608,18 @@
       <c r="D33" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G33" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="F33" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G33" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1622,18 +1631,18 @@
       <c r="D34" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G34" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G34" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1645,18 +1654,18 @@
       <c r="D35" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G35" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="F35" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G35" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1668,18 +1677,18 @@
       <c r="D36" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G36" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="F36" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G36" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1691,18 +1700,18 @@
       <c r="D37" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G37" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="F37" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G37" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1714,18 +1723,18 @@
       <c r="D38" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F38" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G38" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="F38" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G38" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1737,18 +1746,18 @@
       <c r="D39" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G39" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="F39" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G39" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1760,18 +1769,18 @@
       <c r="D40" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G40" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="F40" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G40" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1783,18 +1792,18 @@
       <c r="D41" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F41" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G41" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="F41" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G41" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1806,18 +1815,18 @@
       <c r="D42" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G42" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="F42" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G42" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1829,18 +1838,18 @@
       <c r="D43" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F43" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G43" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="F43" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G43" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1852,18 +1861,18 @@
       <c r="D44" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F44" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G44" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="F44" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G44" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1875,18 +1884,18 @@
       <c r="D45" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F45" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G45" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="F45" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G45" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1898,18 +1907,18 @@
       <c r="D46" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G46" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="F46" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G46" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -1921,18 +1930,18 @@
       <c r="D47" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="19">
         <v>46400</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="19">
         <v>1300000</v>
       </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -1944,18 +1953,18 @@
       <c r="D48" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F48" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G48" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="F48" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G48" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -1967,18 +1976,18 @@
       <c r="D49" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="19">
         <v>46400</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="19">
         <v>1300000</v>
       </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -1990,18 +1999,18 @@
       <c r="D50" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F50" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G50" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="F50" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G50" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -2013,18 +2022,18 @@
       <c r="D51" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F51" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G51" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="F51" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G51" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -2036,18 +2045,18 @@
       <c r="D52" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F52" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G52" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="F52" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G52" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
@@ -2059,18 +2068,18 @@
       <c r="D53" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G53" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="F53" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G53" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
@@ -2082,18 +2091,18 @@
       <c r="D54" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F54" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G54" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="F54" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G54" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
@@ -2105,18 +2114,18 @@
       <c r="D55" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F55" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G55" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="F55" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G55" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
@@ -2128,18 +2137,18 @@
       <c r="D56" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F56" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G56" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="F56" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G56" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
@@ -2151,18 +2160,18 @@
       <c r="D57" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F57" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G57" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="F57" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G57" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
@@ -2174,18 +2183,18 @@
       <c r="D58" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F58" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G58" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="F58" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G58" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
@@ -2197,18 +2206,18 @@
       <c r="D59" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F59" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G59" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="F59" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G59" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
@@ -2220,18 +2229,18 @@
       <c r="D60" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F60" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G60" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="F60" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G60" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
@@ -2243,18 +2252,18 @@
       <c r="D61" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F61" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G61" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
+      <c r="F61" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G61" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
@@ -2266,18 +2275,18 @@
       <c r="D62" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F62" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G62" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="F62" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G62" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
@@ -2289,18 +2298,18 @@
       <c r="D63" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F63" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G63" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
+      <c r="F63" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G63" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
@@ -2312,18 +2321,18 @@
       <c r="D64" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F64" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G64" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="F64" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G64" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
@@ -2335,18 +2344,18 @@
       <c r="D65" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F65" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G65" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
+      <c r="F65" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G65" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
@@ -2358,18 +2367,18 @@
       <c r="D66" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F66" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G66" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="F66" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G66" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
@@ -2381,18 +2390,18 @@
       <c r="D67" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F67" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G67" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
+      <c r="F67" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G67" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
@@ -2404,18 +2413,18 @@
       <c r="D68" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F68" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G68" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
+      <c r="F68" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G68" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
@@ -2427,18 +2436,18 @@
       <c r="D69" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F69" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G69" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
+      <c r="F69" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G69" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
@@ -2450,18 +2459,18 @@
       <c r="D70" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F70" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G70" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
+      <c r="F70" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G70" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
@@ -2473,70 +2482,93 @@
       <c r="D71" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F71" s="18">
-        <v>36360</v>
-      </c>
-      <c r="G71" s="18">
-        <v>909000</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
+      <c r="F71" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G71" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D72" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E72" s="22" t="s">
+      <c r="B72" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F72" s="24">
-        <v>36360</v>
-      </c>
-      <c r="G72" s="24">
-        <v>909000</v>
-      </c>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="26"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B77" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C77" s="32"/>
-      <c r="H77" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
+      <c r="F72" s="19">
+        <v>36360</v>
+      </c>
+      <c r="G72" s="19">
+        <v>909000</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B73" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F73" s="26">
+        <v>36360</v>
+      </c>
+      <c r="G73" s="26">
+        <v>909000</v>
+      </c>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="28"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" s="32"/>
+      <c r="B78" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" s="34"/>
       <c r="H78" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B79" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" s="34"/>
+      <c r="H79" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B79:C79"/>
     <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="H79:J79"/>
     <mergeCell ref="H78:J78"/>
-    <mergeCell ref="H77:J77"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
